--- a/Dialogflow/Dialogflow_results.xlsx
+++ b/Dialogflow/Dialogflow_results.xlsx
@@ -456,13 +456,13 @@
     <t>Kommunicate</t>
   </si>
   <si>
-    <t>Prebuild</t>
-  </si>
-  <si>
     <t>Github</t>
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>Predefined</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>132</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>131</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>142</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
         <v>91</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
         <v>119</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
         <v>139</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
         <v>128</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
         <v>108</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
         <v>85</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
         <v>120</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
         <v>117</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
         <v>113</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
         <v>99</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
         <v>76</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
         <v>94</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
         <v>83</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>43</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
         <v>70</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
         <v>137</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
         <v>121</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
         <v>125</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
         <v>106</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
         <v>31</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
         <v>107</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
         <v>141</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
         <v>86</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
         <v>100</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
         <v>101</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
         <v>104</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
         <v>61</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
         <v>129</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
         <v>103</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B82" t="s">
         <v>123</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
         <v>130</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
         <v>111</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
         <v>138</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
         <v>102</v>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
         <v>115</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
         <v>88</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
         <v>82</v>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
         <v>124</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
         <v>136</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
         <v>105</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
         <v>95</v>
@@ -9494,7 +9494,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s">
         <v>97</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s">
         <v>64</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
         <v>84</v>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
         <v>81</v>
@@ -9826,7 +9826,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
         <v>87</v>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
         <v>79</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
         <v>80</v>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
         <v>118</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
         <v>65</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s">
         <v>112</v>
@@ -10324,7 +10324,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110" t="s">
         <v>134</v>
@@ -10407,7 +10407,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111" t="s">
         <v>59</v>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B112" t="s">
         <v>135</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
         <v>126</v>
@@ -10656,7 +10656,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
         <v>110</v>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
         <v>133</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
@@ -10905,7 +10905,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
         <v>69</v>
@@ -10988,7 +10988,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B118" t="s">
         <v>66</v>

--- a/Dialogflow/Dialogflow_results.xlsx
+++ b/Dialogflow/Dialogflow_results.xlsx
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
